--- a/data/trans_bre/P16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 2,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 5,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 4,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,82; 119,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,77; 204,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,43; 172,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,64; 239,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 4,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 5,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 13,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,33; 226,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 167,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 208,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,7; 376,59</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 6,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,34; 360,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 208,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,36; 305,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,65; 138,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 3,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 5,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 5,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 4,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,77; 272,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,98; 412,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,2; 461,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,0; 140,3</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,94%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 5,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 3,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 4,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 4,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,73; 373,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,06; 366,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,46; 168,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,65; 447,1</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,9%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 3,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 2,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 2,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; 288,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,86; 83,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,46; 225,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; 158,77</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 2,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 3,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 3,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,93; 123,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,76; 103,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,82; 122,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,52; 104,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>-19,38%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,42</t>
+          <t>-4,95; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-77,64; 239,15</t>
+          <t>-81,11; 224,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>242,48%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 13,54</t>
+          <t>-0,19; 44,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 376,59</t>
+          <t>-6,05; 1287,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,49</t>
+          <t>-1,28; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 138,1</t>
+          <t>-25,14; 131,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>74,0%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,14</t>
+          <t>0,1; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 140,3</t>
+          <t>0,42; 373,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>162,94%</t>
+          <t>167,18%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,57</t>
+          <t>1,09; 4,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,65; 447,1</t>
+          <t>41,65; 461,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>163,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>63,53%</t>
+          <t>129,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>47,35%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,31</t>
+          <t>0,32; 5,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,11</t>
+          <t>-3,24; 3,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,28</t>
+          <t>-0,1; 4,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,3</t>
+          <t>-1,82; 2,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 288,56</t>
+          <t>-15,34; 755,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 83,65</t>
+          <t>-54,41; 134,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 225,66</t>
+          <t>-23,99; 725,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 158,77</t>
+          <t>-57,47; 215,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>-2,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>21,24%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,03; 2,4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 2,46</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 3,58</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 2,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-78,27; 314,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-64,95; 114,33</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-53,32; 188,43</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-45,42; 155,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63,94%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>61,46%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>74,98%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>92,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,74; 2,48</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,09; 3,09</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,37; 3,26</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 3,22</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 11,02</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>25,93; 123,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>27,76; 103,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>38,82; 122,83</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>14,52; 104,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 371,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,75</t>
+          <t>-1,83; 2,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,31</t>
+          <t>-0,75; 5,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,6</t>
+          <t>-1,47; 4,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,35</t>
+          <t>-4,68; 3,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 119,63</t>
+          <t>-43,39; 112,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 204,44</t>
+          <t>-16,72; 164,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 172,58</t>
+          <t>-27,94; 169,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,11; 224,87</t>
+          <t>-75,47; 258,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,88</t>
+          <t>-0,21; 3,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,83</t>
+          <t>-0,35; 4,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,23</t>
+          <t>0,26; 5,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 44,45</t>
+          <t>0,04; 45,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 226,23</t>
+          <t>-10,08; 219,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 167,31</t>
+          <t>-7,87; 152,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 208,61</t>
+          <t>3,34; 202,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1287,36</t>
+          <t>-6,69; 1458,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,21</t>
+          <t>0,42; 4,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,15</t>
+          <t>0,97; 6,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,24</t>
+          <t>1,6; 6,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,35</t>
+          <t>-1,33; 3,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 360,62</t>
+          <t>7,63; 372,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 208,87</t>
+          <t>15,65; 209,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,36; 305,72</t>
+          <t>35,96; 292,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 131,05</t>
+          <t>-25,51; 143,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,02</t>
+          <t>-1,09; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,66</t>
+          <t>1,01; 5,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,79</t>
+          <t>1,06; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,54</t>
+          <t>0,28; 5,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 272,19</t>
+          <t>-43,42; 297,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 412,62</t>
+          <t>22,39; 458,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,2; 461,34</t>
+          <t>31,2; 462,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 373,26</t>
+          <t>4,81; 343,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,57</t>
+          <t>-0,48; 5,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,44</t>
+          <t>-0,77; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 4,32</t>
+          <t>-1,41; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,47</t>
+          <t>1,12; 4,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 373,45</t>
+          <t>-18,46; 362,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 366,73</t>
+          <t>-30,9; 344,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 168,9</t>
+          <t>-31,68; 158,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,65; 461,16</t>
+          <t>42,81; 433,89</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,85</t>
+          <t>0,07; 5,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,02</t>
+          <t>-3,04; 3,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,41</t>
+          <t>-0,32; 4,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,82</t>
+          <t>-1,48; 2,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 755,45</t>
+          <t>-9,17; 760,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,41; 134,76</t>
+          <t>-54,91; 139,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 725,94</t>
+          <t>-31,03; 763,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 215,11</t>
+          <t>-50,34; 215,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,4</t>
+          <t>-3,25; 2,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,46</t>
+          <t>-4,08; 2,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,58</t>
+          <t>-2,24; 3,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,05</t>
+          <t>-1,46; 2,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-78,27; 314,99</t>
+          <t>-79,43; 344,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,95; 114,33</t>
+          <t>-64,46; 151,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 188,43</t>
+          <t>-50,09; 173,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 155,68</t>
+          <t>-43,11; 178,44</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,48</t>
+          <t>0,64; 2,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,09</t>
+          <t>0,98; 3,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,26</t>
+          <t>1,33; 3,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,81; 11,02</t>
+          <t>0,78; 9,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,93; 123,2</t>
+          <t>21,03; 121,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,76; 103,26</t>
+          <t>23,38; 101,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,82; 122,83</t>
+          <t>36,06; 126,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,63; 371,49</t>
+          <t>21,15; 336,51</t>
         </is>
       </c>
     </row>
